--- a/medicine/Pharmacie/Lurasidone/Lurasidone.xlsx
+++ b/medicine/Pharmacie/Lurasidone/Lurasidone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La lurasidone est un antipsychotique atypique développé par Dainippon Sumitomo Pharma. Il est administré par voie orale pour le traitement de la schizophrénie[2] et des troubles bipolaires avec dépression[3]. 
-D'après une méta-analyse d'essais en double aveugle, randomisés et contrôlés par placebo, l'incidence des effets indésirables n'a pas différé entre la schizophrénie et les troubles dépressifs[4]. 
-Ces effets secondaires sont, entre autres, l'akathisie, la prise de poids, les symptômes extrapyramidaux, l'utilisation de médicaments anticholinergiques, la somnolence, les étourdissements et les nausées[4].
+La lurasidone est un antipsychotique atypique développé par Dainippon Sumitomo Pharma. Il est administré par voie orale pour le traitement de la schizophrénie et des troubles bipolaires avec dépression. 
+D'après une méta-analyse d'essais en double aveugle, randomisés et contrôlés par placebo, l'incidence des effets indésirables n'a pas différé entre la schizophrénie et les troubles dépressifs. 
+Ces effets secondaires sont, entre autres, l'akathisie, la prise de poids, les symptômes extrapyramidaux, l'utilisation de médicaments anticholinergiques, la somnolence, les étourdissements et les nausées.
 </t>
         </is>
       </c>
